--- a/2022 Philippine Visitor Arrival.xlsx
+++ b/2022 Philippine Visitor Arrival.xlsx
@@ -8,34 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VADE\Documents\My Workspace\PROJECT - TOURISM DEMAND STATISTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB0E7E-9F0D-48A0-AE1D-EA42BEF307BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473458C8-EBAF-4951-BCB5-AC17D0EA780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Tourist_types" sheetId="3" r:id="rId2"/>
     <sheet name="Pivot Countries" sheetId="4" r:id="rId3"/>
-    <sheet name="Pivot tourist type" sheetId="7" r:id="rId4"/>
-    <sheet name="Pivot 2022 Total" sheetId="6" r:id="rId5"/>
-    <sheet name="2022 Data" sheetId="2" r:id="rId6"/>
+    <sheet name="Pivot 2022 Total" sheetId="6" r:id="rId4"/>
+    <sheet name="2022 Data" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'2022 Data'!$A$1:$O$190</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'2022 Data'!$A$1:$O$190</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Tourist_types!$A$1:$N$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A$1:$V$34</definedName>
     <definedName name="Slicer_BY_NATIONALITY">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -778,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -786,144 +783,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7383,7 +7259,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000000B-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7403,7 +7279,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000000D-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7457,7 +7333,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -7502,7 +7378,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -7538,7 +7414,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000010-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7558,7 +7434,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000012-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7612,7 +7488,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -7657,7 +7533,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -7693,7 +7569,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000015-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7713,7 +7589,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000017-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7767,7 +7643,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -7812,7 +7688,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -7848,7 +7724,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000001A-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7868,7 +7744,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000001C-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -7922,7 +7798,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -7967,7 +7843,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001D-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8003,7 +7879,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000001F-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8023,7 +7899,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000021-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8077,7 +7953,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8122,7 +7998,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000022-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8158,7 +8034,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000024-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8178,7 +8054,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000026-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8232,7 +8108,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8277,7 +8153,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000027-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8313,7 +8189,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000029-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8333,7 +8209,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000002B-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8387,7 +8263,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8432,7 +8308,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002C-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8468,7 +8344,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000002E-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8488,7 +8364,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000030-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8542,7 +8418,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8587,7 +8463,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000031-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8623,7 +8499,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000033-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8643,7 +8519,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000035-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8697,7 +8573,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8742,7 +8618,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000036-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8778,7 +8654,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000038-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8798,7 +8674,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000003A-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8852,7 +8728,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -8897,7 +8773,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000003B-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -8933,7 +8809,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000003D-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -8953,7 +8829,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000003F-2CAF-4ED5-BD77-468B750EAA2E}"/>
                     </c:ext>
@@ -9007,7 +8883,7 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
@@ -9052,7 +8928,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000040-2CAF-4ED5-BD77-468B750EAA2E}"/>
                   </c:ext>
@@ -11074,63 +10950,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition pivotCacheId="1837565235"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VADE" refreshedDate="45313.530932291666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{AA4C0C88-F47F-43B1-9B43-8A5237E2F559}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tourist_types"/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="Column1" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Total February 2022" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="26306" maxValue="47715"/>
-    </cacheField>
-    <cacheField name="Total March 2022" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="69639" maxValue="117150"/>
-    </cacheField>
-    <cacheField name="Total April 2022" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="115515" maxValue="188574"/>
-    </cacheField>
-    <cacheField name="Total May 2022" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="124934" maxValue="206393"/>
-    </cacheField>
-    <cacheField name="Total June 2022" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="153503" maxValue="254309"/>
-    </cacheField>
-    <cacheField name="Total July 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="63333" maxValue="295650"/>
-    </cacheField>
-    <cacheField name="Total August 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45478" maxValue="263529"/>
-    </cacheField>
-    <cacheField name="Total September 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="39674" maxValue="246898"/>
-    </cacheField>
-    <cacheField name="Total October 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="47126" maxValue="274803"/>
-    </cacheField>
-    <cacheField name="Total November 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48709" maxValue="324610"/>
-    </cacheField>
-    <cacheField name="Total December 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="59881" maxValue="434227"/>
-    </cacheField>
-    <cacheField name="Total Feb. to Dec. 2022" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="628445" maxValue="2653858"/>
-    </cacheField>
-    <cacheField name="% Share " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23680000000000001" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -14354,59 +14173,6 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <s v="TOTAL FOREIGN TOURIST"/>
-    <n v="26306"/>
-    <n v="69639"/>
-    <n v="115515"/>
-    <n v="124934"/>
-    <n v="153503"/>
-    <n v="232317"/>
-    <n v="218051"/>
-    <n v="207224"/>
-    <n v="227677"/>
-    <n v="275901"/>
-    <n v="374346"/>
-    <n v="2025413"/>
-    <n v="0.76319999999999999"/>
-  </r>
-  <r>
-    <s v="TOTAL OVERSEAS FILIPINOS *"/>
-    <s v="21,409**"/>
-    <s v="47511**"/>
-    <s v="73059**"/>
-    <s v="81459**"/>
-    <s v="100806**"/>
-    <n v="63333"/>
-    <n v="45478"/>
-    <n v="39674"/>
-    <n v="47126"/>
-    <n v="48709"/>
-    <n v="59881"/>
-    <n v="628445"/>
-    <n v="0.23680000000000001"/>
-  </r>
-  <r>
-    <s v="GRAND TOTAL"/>
-    <n v="47715"/>
-    <n v="117150"/>
-    <n v="188574"/>
-    <n v="206393"/>
-    <n v="254309"/>
-    <n v="295650"/>
-    <n v="263529"/>
-    <n v="246898"/>
-    <n v="274803"/>
-    <n v="324610"/>
-    <n v="434227"/>
-    <n v="2653858"/>
-    <n v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F33515DF-01DD-4ED4-8D27-FC9CE4D95BA1}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="48">
   <location ref="A3:L5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
@@ -14994,37 +14760,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6CC82FF-F4CD-4D32-8B3E-8324881D5F9D}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20208FBA-3657-4E63-AC72-C0228BB584D3}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -15552,23 +15287,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E79E96A3-74D5-4A4C-AC60-861907FF74E9}" name="Tourist_types" displayName="Tourist_types" ref="A1:N4" tableType="queryTable" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E79E96A3-74D5-4A4C-AC60-861907FF74E9}" name="Tourist_types" displayName="Tourist_types" ref="A1:N4" tableType="queryTable" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:N4" xr:uid="{E79E96A3-74D5-4A4C-AC60-861907FF74E9}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3C557F6E-4F1F-469F-8B79-50422B0E83F4}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C36133FC-4C68-4FBF-BAC2-3C3FA341D070}" uniqueName="2" name="Total February 2022" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AD067153-2342-4932-8D7B-957B1B4F24CA}" uniqueName="3" name="Total March 2022" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{D5B61C03-C2BB-4B77-8EF0-4C7FB1500B1A}" uniqueName="4" name="Total April 2022" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{3B0AAF42-0F93-4B79-9A61-5DE0D1610FA2}" uniqueName="5" name="Total May 2022" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2D4D2C39-3525-4AFE-A900-03553B586734}" uniqueName="6" name="Total June 2022" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1B14ED7E-A2A1-4949-BF23-CA0949E04F02}" uniqueName="7" name="Total July 2022" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{38F8D3FB-8F53-43AC-B9BB-D4EE31A26951}" uniqueName="8" name="Total August 2022" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{C6D176C3-E582-4EB7-B03C-F7125D047373}" uniqueName="9" name="Total September 2022" queryTableFieldId="9" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{B74549CE-24A9-4321-88B9-1F08BA6F99C0}" uniqueName="10" name="Total October 2022" queryTableFieldId="10" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9E8DFFAE-01E1-41D1-A370-AB6795DC8DC3}" uniqueName="11" name="Total November 2022" queryTableFieldId="11" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{189BF5A3-6BA5-40F8-A0EF-08D91ED1C358}" uniqueName="12" name="Total December 2022" queryTableFieldId="12" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{343D06E3-2F01-4DBF-A7B6-043CE6C491BD}" uniqueName="13" name="Total Feb. to Dec. 2022" queryTableFieldId="13" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{F4934B5F-FE50-4291-9083-042F1A00EA99}" uniqueName="14" name="Total" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3C557F6E-4F1F-469F-8B79-50422B0E83F4}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C36133FC-4C68-4FBF-BAC2-3C3FA341D070}" uniqueName="2" name="Total February 2022" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AD067153-2342-4932-8D7B-957B1B4F24CA}" uniqueName="3" name="Total March 2022" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D5B61C03-C2BB-4B77-8EF0-4C7FB1500B1A}" uniqueName="4" name="Total April 2022" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{3B0AAF42-0F93-4B79-9A61-5DE0D1610FA2}" uniqueName="5" name="Total May 2022" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2D4D2C39-3525-4AFE-A900-03553B586734}" uniqueName="6" name="Total June 2022" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{1B14ED7E-A2A1-4949-BF23-CA0949E04F02}" uniqueName="7" name="Total July 2022" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{38F8D3FB-8F53-43AC-B9BB-D4EE31A26951}" uniqueName="8" name="Total August 2022" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{C6D176C3-E582-4EB7-B03C-F7125D047373}" uniqueName="9" name="Total September 2022" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B74549CE-24A9-4321-88B9-1F08BA6F99C0}" uniqueName="10" name="Total October 2022" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{9E8DFFAE-01E1-41D1-A370-AB6795DC8DC3}" uniqueName="11" name="Total November 2022" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{189BF5A3-6BA5-40F8-A0EF-08D91ED1C358}" uniqueName="12" name="Total December 2022" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{343D06E3-2F01-4DBF-A7B6-043CE6C491BD}" uniqueName="13" name="Total Feb. to Dec. 2022" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{F4934B5F-FE50-4291-9083-042F1A00EA99}" uniqueName="14" name="Total" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15863,109 +15598,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16054,149 +15789,149 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="3">
         <v>26306</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="3">
         <v>69639</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="3">
         <v>115515</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="3">
         <v>124934</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="3">
         <v>153503</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="3">
         <v>232317</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="3">
         <v>218051</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="3">
         <v>207224</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="3">
         <v>227677</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="3">
         <v>275901</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="3">
         <v>374346</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="3">
         <v>2025413</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="3">
         <f>SUM(Tourist_types[[#This Row],[Total February 2022]:[Total Feb. to Dec. 2022]])</f>
         <v>4050826</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="3">
         <v>21409</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="3">
         <v>47511</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="3">
         <v>73059</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="3">
         <v>81459</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="3">
         <v>100806</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="3">
         <v>63333</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="3">
         <v>45478</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="3">
         <v>39674</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="3">
         <v>47126</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="3">
         <v>48709</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="3">
         <v>59881</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="3">
         <v>628445</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="3">
         <f>SUM(Tourist_types[[#This Row],[Total February 2022]:[Total Feb. to Dec. 2022]])</f>
         <v>1256890</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="3">
         <f>B2+B3</f>
         <v>47715</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:M4" si="0">C2+C3</f>
         <v>117150</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>188574</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>206393</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>254309</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>295650</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>263529</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>246898</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>274803</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>324610</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>434227</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>2653858</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="3">
         <f>N2+N3</f>
         <v>5307716</v>
       </c>
@@ -16277,37 +16012,37 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>1779</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>26045</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4">
         <v>36188</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>40657</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>48797</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4">
         <v>55054</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4">
         <v>44491</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4">
         <v>45701</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4">
         <v>53866</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4">
         <v>58926</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4">
         <v>93585</v>
       </c>
     </row>
@@ -16315,37 +16050,37 @@
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>1779</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>26045</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5">
         <v>36188</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>40657</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>48797</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5">
         <v>55054</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5">
         <v>44491</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5">
         <v>45701</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5">
         <v>53866</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5">
         <v>58926</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5">
         <v>93585</v>
       </c>
     </row>
@@ -16355,115 +16090,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D908DB1-1CA4-443C-999C-55B00F47A209}">
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5829836-53E7-49F5-902C-3273388AD102}">
   <dimension ref="A3:B5"/>
   <sheetViews>
@@ -16489,7 +16115,7 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>505089</v>
       </c>
     </row>
@@ -16497,7 +16123,7 @@
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>505089</v>
       </c>
     </row>
@@ -16506,11 +16132,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59728806-9B68-438E-9CC5-9A83522D0452}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
